--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-28T13:01:52-04:00</t>
+    <t>2023-05-05T10:26:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:26:54-04:00</t>
+    <t>2023-05-11T16:43:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3855" uniqueCount="512">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>This resource allows for the definition of various types of plans as a sharable, consumable, and executable artifact. The resource is general enough to support the description of a broad range of clinical artifacts such as clinical decision support rules, order sets and protocols.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}pdf-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
   </si>
   <si>
     <t>Definition</t>
@@ -2051,10 +2055,10 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL1" t="s" s="2">
         <v>35</v>
@@ -2063,15 +2067,15 @@
         <v>35</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2082,7 +2086,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2091,19 +2095,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2153,13 +2157,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2182,10 +2186,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2196,7 +2200,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2205,16 +2209,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2265,19 +2269,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2294,10 +2298,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2308,28 +2312,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2379,19 +2383,19 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
@@ -2408,10 +2412,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2422,7 +2426,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>35</v>
@@ -2434,16 +2438,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2469,13 +2473,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2493,19 +2497,19 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2522,21 +2526,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>35</v>
@@ -2548,16 +2552,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2607,19 +2611,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2631,19 +2635,19 @@
         <v>35</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2662,16 +2666,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2721,7 +2725,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2745,19 +2749,19 @@
         <v>35</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2776,16 +2780,16 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2835,7 +2839,7 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2847,7 +2851,7 @@
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -2859,19 +2863,19 @@
         <v>35</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2884,25 +2888,25 @@
         <v>35</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2951,7 +2955,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2963,7 +2967,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -2975,15 +2979,15 @@
         <v>35</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2994,7 +2998,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>35</v>
@@ -3003,22 +3007,22 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -3067,25 +3071,25 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -3096,10 +3100,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3119,22 +3123,22 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -3183,7 +3187,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3195,16 +3199,16 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>35</v>
@@ -3212,10 +3216,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3226,7 +3230,7 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
@@ -3235,19 +3239,19 @@
         <v>35</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3297,25 +3301,25 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>35</v>
@@ -3326,10 +3330,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3340,7 +3344,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3349,22 +3353,22 @@
         <v>35</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>35</v>
@@ -3413,19 +3417,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3442,10 +3446,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3453,31 +3457,31 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3527,22 +3531,22 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>35</v>
@@ -3556,10 +3560,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3570,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>35</v>
@@ -3582,13 +3586,13 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3639,19 +3643,19 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
@@ -3668,10 +3672,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3682,7 +3686,7 @@
         <v>36</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -3691,16 +3695,16 @@
         <v>35</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3727,13 +3731,13 @@
         <v>35</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>35</v>
@@ -3751,19 +3755,19 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -3780,10 +3784,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3791,31 +3795,31 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3841,13 +3845,13 @@
         <v>35</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>35</v>
@@ -3865,25 +3869,25 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3894,10 +3898,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3908,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>35</v>
@@ -3917,22 +3921,22 @@
         <v>35</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>35</v>
@@ -3981,25 +3985,25 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -4010,10 +4014,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4024,7 +4028,7 @@
         <v>36</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>35</v>
@@ -4036,13 +4040,13 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4050,7 +4054,7 @@
         <v>35</v>
       </c>
       <c r="Q19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>35</v>
@@ -4071,13 +4075,13 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>35</v>
@@ -4095,22 +4099,22 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>35</v>
@@ -4124,42 +4128,42 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4209,25 +4213,25 @@
         <v>35</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -4238,10 +4242,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4252,7 +4256,7 @@
         <v>36</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>35</v>
@@ -4261,22 +4265,22 @@
         <v>35</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -4325,25 +4329,25 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>35</v>
@@ -4354,10 +4358,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4377,19 +4381,19 @@
         <v>35</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4439,7 +4443,7 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4451,10 +4455,10 @@
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
@@ -4468,10 +4472,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4482,7 +4486,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>35</v>
@@ -4491,19 +4495,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4553,22 +4557,22 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>35</v>
@@ -4582,10 +4586,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4605,22 +4609,22 @@
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>35</v>
@@ -4669,7 +4673,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4681,10 +4685,10 @@
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>35</v>
@@ -4698,10 +4702,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4721,19 +4725,19 @@
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4759,13 +4763,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -4783,7 +4787,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4795,10 +4799,10 @@
         <v>35</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>35</v>
@@ -4812,10 +4816,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4826,7 +4830,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>35</v>
@@ -4838,16 +4842,16 @@
         <v>35</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4897,28 +4901,28 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>35</v>
@@ -4926,10 +4930,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4940,7 +4944,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>35</v>
@@ -4952,13 +4956,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5009,19 +5013,19 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>35</v>
@@ -5038,21 +5042,21 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>35</v>
@@ -5064,17 +5068,17 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>35</v>
@@ -5123,28 +5127,28 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>35</v>
@@ -5152,10 +5156,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5166,7 +5170,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>35</v>
@@ -5178,16 +5182,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5237,28 +5241,28 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>35</v>
@@ -5266,10 +5270,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5280,7 +5284,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5292,19 +5296,19 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>35</v>
@@ -5353,28 +5357,28 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -5382,10 +5386,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5396,7 +5400,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>35</v>
@@ -5405,22 +5409,22 @@
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>35</v>
@@ -5469,28 +5473,28 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
@@ -5498,10 +5502,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5524,17 +5528,17 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>35</v>
@@ -5559,13 +5563,13 @@
         <v>35</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>35</v>
@@ -5583,7 +5587,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5595,10 +5599,10 @@
         <v>35</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>35</v>
@@ -5612,10 +5616,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5638,13 +5642,13 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5695,7 +5699,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5707,7 +5711,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -5719,15 +5723,15 @@
         <v>35</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5750,13 +5754,13 @@
         <v>35</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5807,7 +5811,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5819,7 +5823,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -5836,10 +5840,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5862,13 +5866,13 @@
         <v>35</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5919,7 +5923,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -5931,7 +5935,7 @@
         <v>35</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
@@ -5943,15 +5947,15 @@
         <v>35</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5974,13 +5978,13 @@
         <v>35</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6031,7 +6035,7 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6043,7 +6047,7 @@
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>35</v>
@@ -6055,15 +6059,15 @@
         <v>35</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6086,19 +6090,19 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6147,7 +6151,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6159,7 +6163,7 @@
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6176,10 +6180,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6202,13 +6206,13 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6259,7 +6263,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6271,7 +6275,7 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
@@ -6288,10 +6292,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6314,17 +6318,17 @@
         <v>35</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>35</v>
@@ -6373,7 +6377,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6385,7 +6389,7 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
@@ -6402,10 +6406,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6416,7 +6420,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -6428,13 +6432,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6485,13 +6489,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -6509,19 +6513,19 @@
         <v>35</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6540,16 +6544,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6599,7 +6603,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6611,7 +6615,7 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
@@ -6623,19 +6627,19 @@
         <v>35</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6648,25 +6652,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -6715,7 +6719,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6727,7 +6731,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -6739,15 +6743,15 @@
         <v>35</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6758,7 +6762,7 @@
         <v>36</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -6770,13 +6774,13 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6803,13 +6807,13 @@
         <v>35</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>35</v>
@@ -6827,19 +6831,19 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
@@ -6856,10 +6860,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6867,10 +6871,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -6882,16 +6886,16 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6917,13 +6921,13 @@
         <v>35</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>35</v>
@@ -6941,19 +6945,19 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
@@ -6970,10 +6974,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6984,7 +6988,7 @@
         <v>36</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>35</v>
@@ -6996,13 +7000,13 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7029,13 +7033,13 @@
         <v>35</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>35</v>
@@ -7053,19 +7057,19 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7082,10 +7086,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7096,7 +7100,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -7108,13 +7112,13 @@
         <v>35</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7141,13 +7145,13 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -7165,19 +7169,19 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
@@ -7194,10 +7198,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7220,13 +7224,13 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7253,13 +7257,13 @@
         <v>35</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>35</v>
@@ -7277,7 +7281,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7289,7 +7293,7 @@
         <v>35</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>35</v>
@@ -7306,10 +7310,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7332,13 +7336,13 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7389,7 +7393,7 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7401,7 +7405,7 @@
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -7418,10 +7422,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7444,13 +7448,13 @@
         <v>35</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7501,7 +7505,7 @@
         <v>35</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7513,7 +7517,7 @@
         <v>35</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
@@ -7530,10 +7534,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7544,7 +7548,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7556,13 +7560,13 @@
         <v>35</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7613,13 +7617,13 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
@@ -7637,19 +7641,19 @@
         <v>35</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7668,16 +7672,16 @@
         <v>35</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7727,7 +7731,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7739,7 +7743,7 @@
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -7751,19 +7755,19 @@
         <v>35</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7776,25 +7780,25 @@
         <v>35</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -7843,7 +7847,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -7855,7 +7859,7 @@
         <v>35</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
@@ -7867,15 +7871,15 @@
         <v>35</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7886,7 +7890,7 @@
         <v>36</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>35</v>
@@ -7898,13 +7902,13 @@
         <v>35</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7931,13 +7935,13 @@
         <v>35</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>35</v>
@@ -7955,19 +7959,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -7984,10 +7988,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7998,7 +8002,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>35</v>
@@ -8010,13 +8014,13 @@
         <v>35</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8067,19 +8071,19 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>35</v>
@@ -8096,10 +8100,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8110,7 +8114,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>35</v>
@@ -8122,13 +8126,13 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8179,19 +8183,19 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>35</v>
@@ -8208,10 +8212,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8225,7 +8229,7 @@
         <v>37</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>35</v>
@@ -8234,16 +8238,16 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8293,7 +8297,7 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8305,10 +8309,10 @@
         <v>35</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>35</v>
@@ -8322,10 +8326,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8336,7 +8340,7 @@
         <v>36</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>35</v>
@@ -8348,13 +8352,13 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8405,13 +8409,13 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>35</v>
@@ -8429,19 +8433,19 @@
         <v>35</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8460,16 +8464,16 @@
         <v>35</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8519,7 +8523,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8531,7 +8535,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -8543,19 +8547,19 @@
         <v>35</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8568,25 +8572,25 @@
         <v>35</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -8635,7 +8639,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8647,7 +8651,7 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>35</v>
@@ -8659,15 +8663,15 @@
         <v>35</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8678,7 +8682,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -8690,13 +8694,13 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8747,19 +8751,19 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>35</v>
@@ -8776,10 +8780,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8790,7 +8794,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>35</v>
@@ -8802,13 +8806,13 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8859,22 +8863,22 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>35</v>
@@ -8888,10 +8892,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8902,7 +8906,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -8914,13 +8918,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8971,22 +8975,22 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>35</v>
@@ -9000,10 +9004,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9014,7 +9018,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>35</v>
@@ -9026,13 +9030,13 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9083,22 +9087,22 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>35</v>
@@ -9112,10 +9116,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9126,7 +9130,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -9138,13 +9142,13 @@
         <v>35</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9171,13 +9175,13 @@
         <v>35</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>35</v>
@@ -9195,19 +9199,19 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>35</v>
@@ -9224,10 +9228,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9250,13 +9254,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9307,7 +9311,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9319,7 +9323,7 @@
         <v>35</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>35</v>
@@ -9336,10 +9340,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9362,16 +9366,16 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9421,7 +9425,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9433,7 +9437,7 @@
         <v>35</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
@@ -9450,10 +9454,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9476,13 +9480,13 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9533,7 +9537,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9545,7 +9549,7 @@
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
@@ -9562,10 +9566,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9588,13 +9592,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9645,7 +9649,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9657,7 +9661,7 @@
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
@@ -9674,10 +9678,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9688,7 +9692,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -9700,85 +9704,85 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="P69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q69" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>35</v>
@@ -9792,10 +9796,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9818,13 +9822,13 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9875,7 +9879,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -9887,7 +9891,7 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -9904,10 +9908,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9930,16 +9934,16 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9989,7 +9993,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10001,7 +10005,7 @@
         <v>35</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -10018,10 +10022,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10032,7 +10036,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -10044,13 +10048,13 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10101,13 +10105,13 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
@@ -10125,19 +10129,19 @@
         <v>35</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10156,16 +10160,16 @@
         <v>35</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10215,7 +10219,7 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10227,7 +10231,7 @@
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -10239,19 +10243,19 @@
         <v>35</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10264,25 +10268,25 @@
         <v>35</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>35</v>
@@ -10331,7 +10335,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10343,7 +10347,7 @@
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -10355,15 +10359,15 @@
         <v>35</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10371,10 +10375,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>35</v>
@@ -10386,16 +10390,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10421,13 +10425,13 @@
         <v>35</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>35</v>
@@ -10445,19 +10449,19 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
@@ -10474,10 +10478,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10488,7 +10492,7 @@
         <v>36</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>35</v>
@@ -10500,16 +10504,16 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10559,19 +10563,19 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>35</v>
@@ -10588,10 +10592,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10614,13 +10618,13 @@
         <v>35</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10671,7 +10675,7 @@
         <v>35</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -10683,7 +10687,7 @@
         <v>35</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>35</v>
@@ -10700,10 +10704,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10726,13 +10730,13 @@
         <v>35</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10783,7 +10787,7 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -10795,7 +10799,7 @@
         <v>35</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>35</v>
@@ -10812,10 +10816,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10838,16 +10842,16 @@
         <v>35</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10897,7 +10901,7 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
@@ -10909,7 +10913,7 @@
         <v>35</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>35</v>
@@ -10926,10 +10930,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10940,7 +10944,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -10952,13 +10956,13 @@
         <v>35</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11009,13 +11013,13 @@
         <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>35</v>
@@ -11033,19 +11037,19 @@
         <v>35</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11064,16 +11068,16 @@
         <v>35</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11123,7 +11127,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -11135,7 +11139,7 @@
         <v>35</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>35</v>
@@ -11147,19 +11151,19 @@
         <v>35</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11172,25 +11176,25 @@
         <v>35</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>35</v>
@@ -11239,7 +11243,7 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11251,7 +11255,7 @@
         <v>35</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>35</v>
@@ -11263,15 +11267,15 @@
         <v>35</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11279,10 +11283,10 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>35</v>
@@ -11294,13 +11298,13 @@
         <v>35</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11351,19 +11355,19 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>35</v>
@@ -11380,10 +11384,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11391,10 +11395,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>35</v>
@@ -11406,13 +11410,13 @@
         <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11439,13 +11443,13 @@
         <v>35</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>35</v>
@@ -11463,19 +11467,19 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>35</v>
@@ -11492,10 +11496,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11506,7 +11510,7 @@
         <v>36</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>35</v>
@@ -11518,13 +11522,13 @@
         <v>35</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11575,19 +11579,19 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>35</v>
@@ -11604,10 +11608,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11618,7 +11622,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>35</v>
@@ -11630,13 +11634,13 @@
         <v>35</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11687,19 +11691,19 @@
         <v>35</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>35</v>
@@ -11716,10 +11720,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11742,13 +11746,13 @@
         <v>35</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11799,7 +11803,7 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -11811,7 +11815,7 @@
         <v>35</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>35</v>
@@ -11828,10 +11832,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11842,7 +11846,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>35</v>
@@ -11854,13 +11858,13 @@
         <v>35</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11911,13 +11915,13 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>35</v>
@@ -11935,19 +11939,19 @@
         <v>35</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11966,16 +11970,16 @@
         <v>35</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12025,7 +12029,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>36</v>
@@ -12037,7 +12041,7 @@
         <v>35</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>35</v>
@@ -12049,19 +12053,19 @@
         <v>35</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12074,25 +12078,25 @@
         <v>35</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>35</v>
@@ -12141,7 +12145,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -12153,7 +12157,7 @@
         <v>35</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>35</v>
@@ -12165,15 +12169,15 @@
         <v>35</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12181,10 +12185,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>35</v>
@@ -12196,13 +12200,13 @@
         <v>35</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12229,13 +12233,13 @@
         <v>35</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>35</v>
@@ -12253,19 +12257,19 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>35</v>
@@ -12282,10 +12286,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12296,7 +12300,7 @@
         <v>36</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>35</v>
@@ -12308,13 +12312,13 @@
         <v>35</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12341,13 +12345,13 @@
         <v>35</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>35</v>
@@ -12365,19 +12369,19 @@
         <v>35</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>35</v>
@@ -12394,10 +12398,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12408,7 +12412,7 @@
         <v>36</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>35</v>
@@ -12420,13 +12424,13 @@
         <v>35</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12453,13 +12457,13 @@
         <v>35</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>35</v>
@@ -12477,19 +12481,19 @@
         <v>35</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>35</v>
@@ -12506,10 +12510,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12520,7 +12524,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>35</v>
@@ -12532,13 +12536,13 @@
         <v>35</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12565,13 +12569,13 @@
         <v>35</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>35</v>
@@ -12589,19 +12593,19 @@
         <v>35</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>35</v>
@@ -12618,10 +12622,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12632,7 +12636,7 @@
         <v>36</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>35</v>
@@ -12644,13 +12648,13 @@
         <v>35</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12677,13 +12681,13 @@
         <v>35</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>35</v>
@@ -12701,19 +12705,19 @@
         <v>35</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>35</v>
@@ -12730,10 +12734,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12744,7 +12748,7 @@
         <v>36</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>35</v>
@@ -12756,13 +12760,13 @@
         <v>35</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12789,13 +12793,13 @@
         <v>35</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>35</v>
@@ -12813,19 +12817,19 @@
         <v>35</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>35</v>
@@ -12842,10 +12846,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12856,7 +12860,7 @@
         <v>36</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>35</v>
@@ -12868,13 +12872,13 @@
         <v>35</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12901,13 +12905,13 @@
         <v>35</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>35</v>
@@ -12925,19 +12929,19 @@
         <v>35</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>35</v>
@@ -12954,10 +12958,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12968,7 +12972,7 @@
         <v>36</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>35</v>
@@ -12980,13 +12984,13 @@
         <v>35</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13013,13 +13017,13 @@
         <v>35</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>35</v>
@@ -13037,19 +13041,19 @@
         <v>35</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>35</v>
@@ -13066,10 +13070,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13080,7 +13084,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>35</v>
@@ -13092,16 +13096,16 @@
         <v>35</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13151,22 +13155,22 @@
         <v>35</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>35</v>
@@ -13180,10 +13184,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13194,7 +13198,7 @@
         <v>36</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>35</v>
@@ -13206,16 +13210,16 @@
         <v>35</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13265,19 +13269,19 @@
         <v>35</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>35</v>
@@ -13294,10 +13298,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -13320,16 +13324,16 @@
         <v>35</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13379,7 +13383,7 @@
         <v>35</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>36</v>
@@ -13391,7 +13395,7 @@
         <v>35</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>35</v>
@@ -13408,10 +13412,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13422,7 +13426,7 @@
         <v>36</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>35</v>
@@ -13434,13 +13438,13 @@
         <v>35</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -13491,13 +13495,13 @@
         <v>35</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>35</v>
@@ -13515,19 +13519,19 @@
         <v>35</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
@@ -13546,16 +13550,16 @@
         <v>35</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -13605,7 +13609,7 @@
         <v>35</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>36</v>
@@ -13617,7 +13621,7 @@
         <v>35</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>35</v>
@@ -13629,19 +13633,19 @@
         <v>35</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -13654,25 +13658,25 @@
         <v>35</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>35</v>
@@ -13721,7 +13725,7 @@
         <v>35</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>36</v>
@@ -13733,7 +13737,7 @@
         <v>35</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>35</v>
@@ -13745,15 +13749,15 @@
         <v>35</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13764,7 +13768,7 @@
         <v>36</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>35</v>
@@ -13776,16 +13780,16 @@
         <v>35</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -13835,19 +13839,19 @@
         <v>35</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>35</v>
@@ -13864,10 +13868,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13878,7 +13882,7 @@
         <v>36</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>35</v>
@@ -13890,16 +13894,16 @@
         <v>35</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -13949,19 +13953,19 @@
         <v>35</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>35</v>
@@ -13978,10 +13982,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13995,7 +13999,7 @@
         <v>37</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I107" t="s" s="2">
         <v>35</v>
@@ -14007,10 +14011,10 @@
         <v>38</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14061,7 +14065,7 @@
         <v>35</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>36</v>
@@ -14073,10 +14077,10 @@
         <v>35</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>35</v>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:15:52+00:00</t>
+    <t>2024-03-25T20:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T20:47:37+00:00</t>
+    <t>2024-03-25T21:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T21:26:55+00:00</t>
+    <t>2024-03-25T22:06:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:06:12+00:00</t>
+    <t>2024-03-25T22:18:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:18:18+00:00</t>
+    <t>2024-03-25T22:49:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T22:49:56+00:00</t>
+    <t>2024-03-26T03:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T03:52:16+00:00</t>
+    <t>2024-03-26T20:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-26T20:10:39+00:00</t>
+    <t>2024-04-15T18:23:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>KinD Lab (http://fhir.kindlab.sickkids.ca)</t>
   </si>
   <si>
     <t>Description</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-15T18:23:02+00:00</t>
+    <t>2024-04-16T16:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://voicecollab.ai/fhir/StructureDefinition/vbai-plan-definition</t>
+    <t>https://kind-lab.github.io/vbai-fhir/StructureDefinition/vbai-plan-definition</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-16T16:30:12+00:00</t>
+    <t>2024-05-13T19:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
+++ b/vbai-fhir/StructureDefinition-vbai-plan-definition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-13T19:43:18+00:00</t>
+    <t>2024-05-29T18:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
